--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,286 +436,132 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Iteration</t>
+          <t>Iteración</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>xn</t>
+          <t>xi</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fxn</t>
+          <t>f(xi)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.947516091764318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-17.6902860206768</t>
+          <t>8.125</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000005</t>
+          <t>0.583086570283923</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.6902860206768</t>
+          <t>1.06470399307259</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-13.5173641896727</t>
+          <t>-1.60298414312629</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.6902860206768</t>
+          <t>0.110066179962457</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>34.2076502103495</t>
+          <t>1.07791209073011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.51949495555342</t>
+          <t>-0.180331565072615</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.5173641896727</t>
+          <t>0.0122534089478176</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.7271451659029</t>
+          <t>1.07805764787654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.685513898070205</t>
+          <t>-0.0019872259809312</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.51949495555342</t>
+          <t>0.0001350179619101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38.4126590639731</t>
+          <t>1.07805766521594</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.126050414764144</t>
+          <t>-2.36726886382339e-07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.685513898070205</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>38.5387094787372</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-0.0229327615412593</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.126050414764144</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>38.5616422402785</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-0.0041641661015425</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.0229327615412629</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>38.56580640638</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-0.0007558700112753</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0041641661015461</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>38.5665622763913</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-0.000137195062706</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.0007558700112753</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>38.566699471454</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-2.49014605948616e-05</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.000137195062706</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>38.5667243729146</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-4.51970664983037e-06</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.49014605913089e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>38.5667288926213</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-8.20343057483797e-07</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.51970664983037e-06</t>
+          <t>1.60839187751654e-08</t>
         </is>
       </c>
     </row>
